--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.8.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
     <sheet name="Numero De Puertas" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="df" vbProcedure="false">KPIs!$A$1:$J$74</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="e" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ee" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
@@ -48,11 +48,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$J$74</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
@@ -61,6 +61,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="333">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1363,10 +1364,7 @@
     <t xml:space="preserve">Enfriador,Portafolio y Precios,Plataformas,Comunicacion</t>
   </si>
   <si>
-    <t xml:space="preserve">Empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-25</t>
+    <t xml:space="preserve">75-100</t>
   </si>
   <si>
     <t xml:space="preserve">KPI Description</t>
@@ -1426,7 +1424,7 @@
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1501,13 +1499,6 @@
       <name val="VAG Rounded Std Light"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="VAG Rounded Std Light"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="15"/>
@@ -1737,7 +1728,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1986,10 +1977,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2010,35 +1997,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2074,7 +2061,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2082,7 +2069,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2098,11 +2085,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2138,7 +2125,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2228,7 +2215,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G80" activeCellId="1" sqref="E9 G80"/>
+      <selection pane="bottomLeft" activeCell="G80" activeCellId="1" sqref="G43:G45 G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2236,12 +2223,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.8421052631579"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="127.044534412955"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="128.113360323887"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -4276,7 +4263,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J80"/>
+  <autoFilter ref="A1:J79"/>
   <mergeCells count="1">
     <mergeCell ref="H16:H22"/>
   </mergeCells>
@@ -4299,161 +4286,161 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="E9 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="G43:G45 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="83" t="s">
         <v>292</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="83" t="s">
         <v>293</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="83" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="85" t="n">
+      <c r="A2" s="84" t="n">
         <v>40</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="85" t="n">
+      <c r="C2" s="84" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="85" t="n">
+      <c r="A3" s="84" t="n">
         <v>45</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="85" t="n">
+      <c r="C3" s="84" t="n">
         <v>1.5</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="85" t="n">
+      <c r="A4" s="84" t="n">
         <v>50</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="85" t="n">
+      <c r="C4" s="84" t="n">
         <v>1.5</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="G4" s="88"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="85" t="n">
+      <c r="A5" s="84" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="89" t="n">
+      <c r="C5" s="88" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="90" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -4474,24 +4461,24 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="E9 H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="1" sqref="G43:G45 H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="60.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="54.0931174089069"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="64.4858299595142"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="64.4858299595142"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="95.9797570850202"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="70.1619433198381"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="54.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="65.0202429149798"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="65.0202429149798"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="96.834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="70.7004048582996"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="61" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="61" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="61" width="11.6761133603239"/>
@@ -4591,18 +4578,18 @@
       <c r="M2" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N2" s="93"/>
+      <c r="N2" s="92"/>
       <c r="O2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93" t="s">
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="93" t="s">
+      <c r="R2" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="S2" s="93"/>
+      <c r="S2" s="92"/>
     </row>
     <row r="3" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -4638,18 +4625,18 @@
       <c r="M3" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N3" s="93"/>
+      <c r="N3" s="92"/>
       <c r="O3" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93" t="s">
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="93" t="s">
+      <c r="R3" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="S3" s="93"/>
+      <c r="S3" s="92"/>
     </row>
     <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -4685,18 +4672,18 @@
       <c r="M4" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N4" s="93"/>
+      <c r="N4" s="92"/>
       <c r="O4" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93" t="s">
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="S4" s="93"/>
+      <c r="S4" s="92"/>
     </row>
     <row r="5" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -4732,18 +4719,18 @@
       <c r="M5" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N5" s="93"/>
+      <c r="N5" s="92"/>
       <c r="O5" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93" t="s">
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="93" t="s">
+      <c r="R5" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="S5" s="93"/>
+      <c r="S5" s="92"/>
     </row>
     <row r="6" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -4779,18 +4766,18 @@
       <c r="M6" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="N6" s="93"/>
+      <c r="N6" s="92"/>
       <c r="O6" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93" t="s">
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="93" t="s">
+      <c r="R6" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="S6" s="93"/>
+      <c r="S6" s="92"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4811,21 +4798,21 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="E9 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="G43:G45 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.5991902834008"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.0485829959514"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="75.0890688259109"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.8016194331984"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="75.7327935222672"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4980,7 +4967,7 @@
       <c r="D5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="86" t="s">
         <v>142</v>
       </c>
       <c r="F5" s="12" t="s">
@@ -5019,7 +5006,7 @@
       <c r="D6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="86" t="s">
         <v>144</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -5142,17 +5129,17 @@
       <c r="C10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="84" t="s">
         <v>140</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="85" t="s">
+      <c r="G10" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="84" t="s">
         <v>311</v>
       </c>
       <c r="I10" s="2"/>
@@ -5171,17 +5158,17 @@
       <c r="C11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="84" t="s">
         <v>172</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="84" t="s">
         <v>314</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="84" t="s">
         <v>311</v>
       </c>
       <c r="I11" s="2"/>
@@ -5194,28 +5181,28 @@
       <c r="A12" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95" t="n">
+      <c r="B12" s="93"/>
+      <c r="C12" s="94" t="n">
         <v>100</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97" t="s">
+      <c r="E12" s="96"/>
+      <c r="F12" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="G12" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="96" t="s">
         <v>311</v>
       </c>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5235,8 +5222,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E9 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5295,49 +5282,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="112" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="n">
         <v>31</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" s="87" t="s">
+      <c r="G2" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="86"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="M2" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>202</v>
-      </c>
-      <c r="M2" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="O2" s="86" t="s">
+      <c r="O2" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="85" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5360,19 +5347,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="E9 H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="G43:G45 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0607287449393"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="55.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5387,7 +5374,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>6</v>
@@ -5396,25 +5383,25 @@
         <v>205</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>324</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>325</v>
       </c>
       <c r="N1" s="36" t="s">
         <v>8</v>
@@ -5442,20 +5429,20 @@
       <c r="F2" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="98" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" s="98" t="s">
         <v>326</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="I2" s="98" t="s">
         <v>327</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="J2" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>329</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>330</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>202</v>
@@ -5489,7 +5476,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="E9 G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="G43:G45 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5528,11 +5515,11 @@
       <c r="A2" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>185</v>
@@ -5541,10 +5528,10 @@
         <v>203</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>332</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5566,20 +5553,20 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="E9 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="G43:G45 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.4858299595142"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="66.8421052631579"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5763,27 +5750,27 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="E9 H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="G43:G45 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="83.1255060728745"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="64.4858299595142"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.0202429149798"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.0202429149798"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.4898785425101"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -6251,7 +6238,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="E9 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="G43:G45 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6262,14 +6249,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -6393,17 +6380,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="E9 C22"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="G43:G45 C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.3765182186235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.0202429149798"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="60.9514170040486"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="110.441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="111.404858299595"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6657,21 +6644,21 @@
   </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="G43:G45 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="60.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="55.5951417004049"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="75.3036437246964"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="75.9473684210526"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="80.3400809716599"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="61" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="101.975708502024"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="102.939271255061"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="61" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="61" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="61" width="13.3886639676113"/>
@@ -6695,7 +6682,7 @@
       <c r="D1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="28" t="s">
         <v>194</v>
       </c>
       <c r="F1" s="29" t="s">
@@ -6751,30 +6738,30 @@
       <c r="C2" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="62" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66" t="s">
         <v>220</v>
       </c>
       <c r="N2" s="0"/>
@@ -6796,30 +6783,30 @@
       <c r="C3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>59</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="67" t="s">
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66" t="s">
         <v>220</v>
       </c>
       <c r="N3" s="0"/>
@@ -6841,30 +6828,30 @@
       <c r="C4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="67" t="s">
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66" t="s">
         <v>220</v>
       </c>
       <c r="N4" s="0"/>
@@ -6886,30 +6873,30 @@
       <c r="C5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="62" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="67" t="s">
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66" t="s">
         <v>220</v>
       </c>
       <c r="N5" s="0"/>
@@ -6931,30 +6918,30 @@
       <c r="C6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="62" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="67" t="s">
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="66" t="s">
         <v>220</v>
       </c>
       <c r="N6" s="0"/>
@@ -6976,30 +6963,30 @@
       <c r="C7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="65" t="s">
         <v>246</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67" t="s">
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66" t="s">
         <v>220</v>
       </c>
       <c r="N7" s="0"/>
@@ -7021,28 +7008,28 @@
       <c r="C8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="66" t="s">
+      <c r="I8" s="67"/>
+      <c r="J8" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="67" t="s">
+      <c r="K8" s="65"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="66" t="s">
         <v>220</v>
       </c>
       <c r="N8" s="0"/>
@@ -7055,7 +7042,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="69" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -7076,7 +7063,7 @@
       <c r="G9" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="64" t="s">
         <v>201</v>
       </c>
       <c r="I9" s="0"/>
@@ -7087,7 +7074,7 @@
         <v>220</v>
       </c>
       <c r="L9" s="0"/>
-      <c r="M9" s="67" t="s">
+      <c r="M9" s="66" t="s">
         <v>220</v>
       </c>
       <c r="N9" s="0"/>
@@ -7100,7 +7087,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="70" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -7127,10 +7114,10 @@
       </c>
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N10" s="72"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="61" t="s">
         <v>203</v>
       </c>
@@ -7140,7 +7127,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="70" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -7167,10 +7154,10 @@
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
-      <c r="M11" s="67" t="s">
+      <c r="M11" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="N11" s="72"/>
+      <c r="N11" s="71"/>
       <c r="O11" s="61" t="s">
         <v>203</v>
       </c>
@@ -7198,26 +7185,26 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="1" sqref="E9 N4"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="1" sqref="G43:G45 N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="64.4858299595142"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="68.663967611336"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.8785425101215"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="65.0202429149798"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="69.3076923076923"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -7299,7 +7286,7 @@
       <c r="A2" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7312,7 +7299,7 @@
       <c r="F2" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="72" t="s">
         <v>262</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -7351,7 +7338,7 @@
       <c r="A3" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>177</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -7366,7 +7353,7 @@
       <c r="F3" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="72" t="s">
         <v>267</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -7378,17 +7365,17 @@
       <c r="J3" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="73" t="s">
         <v>269</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75" t="s">
+      <c r="L3" s="73"/>
+      <c r="M3" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="74" t="s">
         <v>199</v>
       </c>
       <c r="P3" s="3"/>
@@ -7426,24 +7413,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="E9 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="G43:G45 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.4858299595142"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.0202429149798"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -7508,25 +7495,25 @@
       <c r="C2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="J2" s="78"/>
+      <c r="J2" s="77"/>
       <c r="K2" s="10" t="s">
         <v>202</v>
       </c>
@@ -7550,19 +7537,19 @@
       <c r="D3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="I3" s="78" t="n">
+      <c r="I3" s="77" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="7"/>
@@ -7586,22 +7573,22 @@
       <c r="C4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="77" t="s">
         <v>283</v>
       </c>
       <c r="J4" s="7"/>
@@ -7634,16 +7621,16 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="E9 A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="G43:G45 A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.1295546558705"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.663967611336"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7671,7 +7658,7 @@
       <c r="B2" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="79" t="s">
         <v>145</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -7682,13 +7669,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="81" t="n">
+      <c r="A3" s="80" t="n">
         <v>42</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="79" t="s">
         <v>150</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -7699,13 +7686,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82" t="n">
+      <c r="A4" s="81" t="n">
         <v>43</v>
       </c>
       <c r="B4" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>153</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -7716,7 +7703,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="81" t="n">
+      <c r="A5" s="80" t="n">
         <v>44</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -7733,13 +7720,13 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="81" t="n">
+      <c r="A6" s="80" t="n">
         <v>46</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="79" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="0" t="s">
@@ -7750,13 +7737,13 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="82" t="n">
+      <c r="A7" s="81" t="n">
         <v>47</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="79" t="s">
         <v>163</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -7767,13 +7754,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="81" t="n">
+      <c r="A8" s="80" t="n">
         <v>48</v>
       </c>
       <c r="B8" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="79" t="s">
         <v>164</v>
       </c>
       <c r="D8" s="0" t="s">
@@ -7784,7 +7771,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="82" t="n">
+      <c r="A9" s="81" t="n">
         <v>49</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -7801,13 +7788,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="81" t="n">
+      <c r="A10" s="80" t="n">
         <v>51</v>
       </c>
       <c r="B10" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="79" t="s">
         <v>168</v>
       </c>
       <c r="D10" s="0" t="s">
@@ -7818,13 +7805,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="82" t="n">
+      <c r="A11" s="81" t="n">
         <v>52</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="79" t="s">
         <v>169</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -7835,13 +7822,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="81" t="n">
+      <c r="A12" s="80" t="n">
         <v>53</v>
       </c>
       <c r="B12" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="79" t="s">
         <v>170</v>
       </c>
       <c r="D12" s="0" t="s">
@@ -7852,13 +7839,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="82" t="n">
+      <c r="A13" s="81" t="n">
         <v>54</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="79" t="s">
         <v>171</v>
       </c>
       <c r="D13" s="0" t="s">
@@ -7869,13 +7856,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="82" t="n">
+      <c r="A14" s="81" t="n">
         <v>61</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="79" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="0" t="s">
@@ -7886,13 +7873,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="82" t="n">
+      <c r="A15" s="81" t="n">
         <v>62</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="79" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="0" t="s">
@@ -7903,13 +7890,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="82" t="n">
+      <c r="A16" s="81" t="n">
         <v>63</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="79" t="s">
         <v>182</v>
       </c>
       <c r="D16" s="0" t="s">
@@ -7920,10 +7907,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="82" t="n">
+      <c r="A17" s="81" t="n">
         <v>64</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="82" t="s">
         <v>179</v>
       </c>
       <c r="C17" s="38" t="s">

--- a/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.8.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplatev0.8.8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
     <sheet name="Numero De Puertas" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="df" vbProcedure="false">KPIs!$A$1:$J$74</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="e" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ee" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
@@ -48,12 +48,12 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$J$74</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$80</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
@@ -62,6 +62,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$J$79</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="334">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1305,6 +1306,9 @@
   </si>
   <si>
     <t xml:space="preserve">kpi_fk_lvl2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_possible_sku</t>
   </si>
   <si>
     <t xml:space="preserve">Distribution </t>
@@ -2215,7 +2219,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G80" activeCellId="1" sqref="G43:G45 G80"/>
+      <selection pane="bottomLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2223,12 +2227,12 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.9514170040486"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.4858299595142"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="128.113360323887"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.0202429149798"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="129.291497975709"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1022" min="11" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
@@ -4263,7 +4267,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J79"/>
+  <autoFilter ref="A1:J80"/>
   <mergeCells count="1">
     <mergeCell ref="H16:H22"/>
   </mergeCells>
@@ -4286,17 +4290,17 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="G43:G45 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4461,24 +4465,24 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="1" sqref="G43:G45 H5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="60.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="54.5222672064777"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="65.0202429149798"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="65.0202429149798"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="96.834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="61" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="65.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="61" width="65.5587044534413"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="97.587044534413"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="61" width="71.2348178137652"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="14" min="13" style="61" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="61" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="61" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="61" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="61" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="61" width="11.6761133603239"/>
@@ -4511,7 +4515,7 @@
         <v>205</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -4564,7 +4568,7 @@
         <v>117</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>215</v>
@@ -4576,7 +4580,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="3" t="s">
@@ -4611,7 +4615,7 @@
         <v>123</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>215</v>
@@ -4623,7 +4627,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N3" s="92"/>
       <c r="O3" s="3" t="s">
@@ -4658,10 +4662,10 @@
         <v>126</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="3" t="s">
@@ -4670,7 +4674,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N4" s="92"/>
       <c r="O4" s="3" t="s">
@@ -4705,19 +4709,21 @@
         <v>130</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="I5" s="12"/>
+        <v>300</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="J5" s="3" t="s">
         <v>127</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N5" s="92"/>
       <c r="O5" s="3" t="s">
@@ -4752,10 +4758,10 @@
         <v>133</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="3" t="s">
@@ -4764,7 +4770,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N6" s="92"/>
       <c r="O6" s="3" t="s">
@@ -4798,21 +4804,21 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="G43:G45 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.8016194331984"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="75.7327935222672"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="95.6558704453441"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="76.4817813765182"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -4833,16 +4839,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>292</v>
@@ -4878,10 +4884,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -4910,10 +4916,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -4941,10 +4947,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -4974,13 +4980,13 @@
         <v>13</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J5" s="10" t="n">
         <v>1</v>
@@ -5013,10 +5019,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -5042,13 +5048,13 @@
         <v>13</v>
       </c>
       <c r="G7" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="J7" s="10" t="n">
         <v>1</v>
@@ -5079,10 +5085,10 @@
         <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5108,10 +5114,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -5137,10 +5143,10 @@
         <v>13</v>
       </c>
       <c r="G10" s="84" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H10" s="84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -5166,10 +5172,10 @@
         <v>13</v>
       </c>
       <c r="G11" s="84" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H11" s="84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -5193,10 +5199,10 @@
         <v>13</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H12" s="96" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I12" s="96"/>
       <c r="J12" s="96"/>
@@ -5222,8 +5228,8 @@
   </sheetPr>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43:G45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5319,7 +5325,7 @@
         <v>203</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O2" s="85" t="s">
         <v>44</v>
@@ -5347,19 +5353,19 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="G43:G45 H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.4898785425101"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.6315789473684"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="56.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5374,7 +5380,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>6</v>
@@ -5383,25 +5389,25 @@
         <v>205</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="36" t="s">
         <v>8</v>
@@ -5430,19 +5436,19 @@
         <v>215</v>
       </c>
       <c r="G2" s="98" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H2" s="98" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I2" s="98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>202</v>
@@ -5476,7 +5482,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="G43:G45 G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5519,7 +5525,7 @@
         <v>184</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>185</v>
@@ -5528,10 +5534,10 @@
         <v>203</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -5553,20 +5559,20 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="G43:G45 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.4858299595142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.0202429149798"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="67.4858299595142"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="68.0202429149798"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -5750,27 +5756,27 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="G43:G45 H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="83.8744939271255"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.0202429149798"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="65.5587044534413"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.8097165991903"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -6238,7 +6244,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="G43:G45 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6249,14 +6255,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -6380,17 +6386,17 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="G43:G45 C22"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.6599190283401"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="111.404858299595"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="112.473684210526"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -6645,20 +6651,20 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="G43:G45 E9"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="61" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="75.9473684210526"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="61" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="61" width="76.6963562753036"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="61" width="80.9838056680162"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="61" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="102.939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="61" width="103.797570850202"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="61" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="61" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="61" width="13.3886639676113"/>
@@ -7185,26 +7191,26 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="1" sqref="G43:G45 N4"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="60.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="65.0202429149798"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="69.3076923076923"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="65.5587044534413"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="69.9473684210526"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="11.6761133603239"/>
@@ -7413,24 +7419,24 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="G43:G45 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5263157894737"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.0202429149798"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -7621,16 +7627,16 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="G43:G45 A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.663967611336"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
